--- a/medicine/Enfance/Renaat_Demoen/Renaat_Demoen.xlsx
+++ b/medicine/Enfance/Renaat_Demoen/Renaat_Demoen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Renaat Demoen dit René Demoen, né le 11 juin 1914 à Emelgem (province de Flandre-Occidentale) et mort le 22 mai 1986, est un illustrateur et auteur de bande dessinée belge néerlandophone.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Renaat Demoen naît le 11 juin 1914 à Emelgem[1],[2],[3].
-Il commence sa carrière dans une usine de chaussures, puis comme imprimeur à Izegem[2]. Bien qu'il n'ait aucune formation artistique, il décide de devenir illustrateur[2]. En 1942, il rencontre Nonkel Fons (nl), directeur des Éditions Averbode (De Goede Pers - Altoria), la branche éditoriale de l'abbaye d'Averbode[2]. Ensemble, ils réalisent plusieurs bandes dessinées, dont le coloré Auto-stop. À la mort de son père, il vient vivre dans l'abbaye même[2]. Après son mariage, il s'installe dans le village d'Averbode[2].
-Fin 1944, il crée sa première bande dessinée pour Zonneland et son homologue francophone Petits Belges : Les Aventures de Jack Persson, suivi l'année suivante de Spits, de durver [« Muss, détective »] sur un scénario de R. Guissolles[4] et publiée tardivement par Het Vlaams Stripcentrum en 2023. Il succède à Jan Waterschoot sur la série Johnny de Weesjongen [« Johnny l'orphelin »] en 1947. Il en fera un grand succès populaire sous le titre général de Johnny et Annie[5]. Trois albums sont publiés aux éditions Averbode de 1948 à 1950[6].
-Avec son ami le romancier John Flanders, il réalise De Zwarte Veroveraar [« Le Conquérant noir »], une biographie en bande dessinée du père Pierre-Jean De Smet en 1947[7].
-Entre 1945 et 1959, il dessine quinze histoires de bandes dessinées pour Zonneland, qui se distinguent par leur style expérimental et une nette influence d'Hergé[2].
-Au cours des années 1950 et 1960, il réalise également des dessins humoristiques pour les calendriers de Druivelaar[2]. Il illustre également plusieurs romans de Jean Ray[3],[8]. Après 1959, il se consacre uniquement aux illustrations, ce qu'il fera jusqu'en 1969[2]. Le 30 juin 1976, il prend sa pension anticipée après 35 ans de service[9].
-Il meurt le 22 mai 1986 à l'âge de 72 ans[1],[3].
-Ses archives sont conservées au KADOC (nl) un centre de recherches et de documentation pour la religion et la culture de Louvain[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Renaat Demoen naît le 11 juin 1914 à Emelgem.
+Il commence sa carrière dans une usine de chaussures, puis comme imprimeur à Izegem. Bien qu'il n'ait aucune formation artistique, il décide de devenir illustrateur. En 1942, il rencontre Nonkel Fons (nl), directeur des Éditions Averbode (De Goede Pers - Altoria), la branche éditoriale de l'abbaye d'Averbode. Ensemble, ils réalisent plusieurs bandes dessinées, dont le coloré Auto-stop. À la mort de son père, il vient vivre dans l'abbaye même. Après son mariage, il s'installe dans le village d'Averbode.
+Fin 1944, il crée sa première bande dessinée pour Zonneland et son homologue francophone Petits Belges : Les Aventures de Jack Persson, suivi l'année suivante de Spits, de durver [« Muss, détective »] sur un scénario de R. Guissolles et publiée tardivement par Het Vlaams Stripcentrum en 2023. Il succède à Jan Waterschoot sur la série Johnny de Weesjongen [« Johnny l'orphelin »] en 1947. Il en fera un grand succès populaire sous le titre général de Johnny et Annie. Trois albums sont publiés aux éditions Averbode de 1948 à 1950.
+Avec son ami le romancier John Flanders, il réalise De Zwarte Veroveraar [« Le Conquérant noir »], une biographie en bande dessinée du père Pierre-Jean De Smet en 1947.
+Entre 1945 et 1959, il dessine quinze histoires de bandes dessinées pour Zonneland, qui se distinguent par leur style expérimental et une nette influence d'Hergé.
+Au cours des années 1950 et 1960, il réalise également des dessins humoristiques pour les calendriers de Druivelaar. Il illustre également plusieurs romans de Jean Ray,. Après 1959, il se consacre uniquement aux illustrations, ce qu'il fera jusqu'en 1969. Le 30 juin 1976, il prend sa pension anticipée après 35 ans de service.
+Il meurt le 22 mai 1986 à l'âge de 72 ans,.
+Ses archives sont conservées au KADOC (nl) un centre de recherches et de documentation pour la religion et la culture de Louvain.
 </t>
         </is>
       </c>
@@ -549,16 +563,90 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des publications en français
-Albums de bande dessinée
-Johnny l'orphelin
-1 Le Mystère de Hurlevent[10], Éditions Averbode, Averbode, 1948Scénario : Daniël De Kesel (nl) - Dessin : Renaat Demoen - Couleurs : quadrichromie
-2 La Marmite du dragon[11], Averbode, Averbode, 1949Scénario : Daniël De Kesel - Dessin : Renaat Demoen - Couleurs : quadrichromie
-3 Le Bâton du féticheur[12], Averbode, Averbode, 1950Scénario : Daniël De Kesel - Dessin : Renaat Demoen - Couleurs : quadrichromie
-Illustrations
-John Flanders et René Demoen (ill.), La Bataille d'Angleterre – Trois jeunes gens dans la tourmente, Averbode, La Bonne Presse, s.d. (1947), 148 p. (OCLC 1400332800, présentation en ligne)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des publications en français
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Renaat_Demoen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renaat_Demoen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Johnny l'orphelin</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 Le Mystère de Hurlevent, Éditions Averbode, Averbode, 1948Scénario : Daniël De Kesel (nl) - Dessin : Renaat Demoen - Couleurs : quadrichromie
+2 La Marmite du dragon, Averbode, Averbode, 1949Scénario : Daniël De Kesel - Dessin : Renaat Demoen - Couleurs : quadrichromie
+3 Le Bâton du féticheur, Averbode, Averbode, 1950Scénario : Daniël De Kesel - Dessin : Renaat Demoen - Couleurs : quadrichromie</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Renaat_Demoen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Renaat_Demoen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>John Flanders et René Demoen (ill.), La Bataille d'Angleterre – Trois jeunes gens dans la tourmente, Averbode, La Bonne Presse, s.d. (1947), 148 p. (OCLC 1400332800, présentation en ligne)
 John Flanders et René Demoen (ill.), Un roman de la mer, Averbode, Altiora, s.d. (1959) (présentation en ligne)
 Jean Ray et René Demoen (ill.), Hirro, l'enfant de la jungle, Averbode, Altiora, s.d. (1959), 32 p. (OCLC 1400628118, présentation en ligne)
 Jean Ray et René Demoen (ill.), Les Prisonniers de Morstanhill, Averbode, Altiora, s.d. (1959) (présentation en ligne)</t>
